--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Examcenter_workspace\Automation_Cucumber_EC\src\test\resources\Excelfiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E5AE87-301B-41EF-8657-BCEC8C586007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{566BECAE-0D03-4595-8838-1875699E847E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PROD" sheetId="1" r:id="rId1"/>
     <sheet name="STAGE" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>ExamName</t>
   </si>
@@ -69,9 +63,6 @@
     <t>Month</t>
   </si>
   <si>
-    <t>MAY</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -87,12 +78,6 @@
     <t>Online Examinations</t>
   </si>
   <si>
-    <t>Final Examinations15</t>
-  </si>
-  <si>
-    <t>ExamtakerFullname</t>
-  </si>
-  <si>
     <t>LocationName</t>
   </si>
   <si>
@@ -105,40 +90,40 @@
     <t>EditLocationName</t>
   </si>
   <si>
-    <t>Location100</t>
-  </si>
-  <si>
     <t>"Test January 9"</t>
   </si>
   <si>
-    <t>January Exams</t>
-  </si>
-  <si>
-    <t>Examtaker Create</t>
-  </si>
-  <si>
-    <t>Schedule test123</t>
-  </si>
-  <si>
-    <t>Stage Location11</t>
-  </si>
-  <si>
-    <t>January Exams27</t>
-  </si>
-  <si>
-    <t>Schedule test108</t>
-  </si>
-  <si>
-    <t>Prod Location25</t>
-  </si>
-  <si>
-    <t>Location105</t>
+    <t>Grade01</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Guntur</t>
+  </si>
+  <si>
+    <t>"All Questions Test"</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Pre Final</t>
+  </si>
+  <si>
+    <t>Pre Finals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -290,7 +275,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -484,39 +469,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1037FEEC-3965-40C2-B3A4-8B47E1ECD479}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="6.6328125" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" customWidth="1"/>
-    <col min="9" max="9" width="24.6328125" customWidth="1"/>
-    <col min="10" max="10" width="20.54296875" customWidth="1"/>
-    <col min="11" max="11" width="18.7265625" customWidth="1"/>
-    <col min="12" max="12" width="29.7265625" customWidth="1"/>
-    <col min="13" max="13" width="21.453125" customWidth="1"/>
-    <col min="14" max="14" width="16.36328125" customWidth="1"/>
-    <col min="15" max="15" width="21.08984375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +523,7 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -548,66 +532,57 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>22</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
       <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
         <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -616,30 +591,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50E554D4-691E-4AB8-8FF8-C9DB02739660}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" customWidth="1"/>
-    <col min="4" max="4" width="26.453125" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" customWidth="1"/>
-    <col min="9" max="9" width="12.08984375" customWidth="1"/>
-    <col min="10" max="10" width="16.81640625" customWidth="1"/>
-    <col min="11" max="11" width="22.1796875" customWidth="1"/>
-    <col min="12" max="12" width="19.36328125" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" customWidth="1"/>
-    <col min="14" max="14" width="13.36328125" customWidth="1"/>
-    <col min="15" max="15" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" customWidth="1"/>
+    <col min="11" max="11" width="22.21875" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +636,7 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
         <v>6</v>
@@ -671,66 +645,60 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>22</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
@@ -11,27 +11,11 @@
     <sheet name="STAGE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>ExamName</t>
   </si>
@@ -117,20 +101,32 @@
     <t>Pre Final</t>
   </si>
   <si>
-    <t>Pre Finals</t>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>SmokeTest Jan30</t>
+  </si>
+  <si>
+    <t>Shedule Jan 30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -163,6 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,9 +169,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -469,7 +463,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -595,7 +589,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,7 +653,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -671,7 +665,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -691,8 +685,8 @@
       <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
-        <v>26</v>
+      <c r="L2" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="PROD" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>ExamName</t>
   </si>
@@ -77,9 +77,6 @@
     <t>"Test January 9"</t>
   </si>
   <si>
-    <t>Grade01</t>
-  </si>
-  <si>
     <t>DEC</t>
   </si>
   <si>
@@ -95,38 +92,26 @@
     <t>state</t>
   </si>
   <si>
-    <t>Chicago</t>
-  </si>
-  <si>
-    <t>Pre Final</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>SmokeTest Jan30</t>
-  </si>
-  <si>
-    <t>Shedule Jan 30</t>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Shedule Jan 31</t>
+  </si>
+  <si>
+    <t>Exam Jan31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -159,7 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,19 +531,19 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -573,10 +558,10 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -588,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,25 +638,25 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>22</v>
@@ -686,16 +671,17 @@
         <v>14</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PROD" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>ExamName</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>Exam Jan31</t>
+  </si>
+  <si>
+    <t>SmokeTest Exam Feb 01</t>
+  </si>
+  <si>
+    <t>Shedule Feb 01</t>
+  </si>
+  <si>
+    <t>Germany</t>
   </si>
 </sst>
 </file>
@@ -448,7 +457,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -458,7 +467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -573,13 +582,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="21.5546875" customWidth="1"/>
     <col min="4" max="4" width="26.44140625" customWidth="1"/>
@@ -638,7 +647,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -650,7 +659,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -671,7 +680,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="PROD" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>ExamName</t>
   </si>
@@ -92,22 +92,13 @@
     <t>state</t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>Shedule Jan 31</t>
-  </si>
-  <si>
-    <t>Exam Jan31</t>
-  </si>
-  <si>
-    <t>SmokeTest Exam Feb 01</t>
-  </si>
-  <si>
-    <t>Shedule Feb 01</t>
-  </si>
-  <si>
-    <t>Germany</t>
+    <t>SmokeTest Exam Feb 05</t>
+  </si>
+  <si>
+    <t>Shedule Feb 05</t>
+  </si>
+  <si>
+    <t>Ukrine</t>
   </si>
 </sst>
 </file>
@@ -457,7 +448,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -467,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,7 +525,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -567,7 +558,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -582,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,7 +638,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -659,7 +650,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -680,7 +671,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -92,13 +92,13 @@
     <t>state</t>
   </si>
   <si>
-    <t>SmokeTest Exam Feb 05</t>
-  </si>
-  <si>
-    <t>Shedule Feb 05</t>
-  </si>
-  <si>
-    <t>Ukrine</t>
+    <t>SmokeTest Exam Pipeline</t>
+  </si>
+  <si>
+    <t>AzurePipelineLOC</t>
+  </si>
+  <si>
+    <t>Pipeline Schedule</t>
   </si>
 </sst>
 </file>
@@ -134,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -144,7 +144,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +447,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -458,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,7 +536,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -558,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -579,7 +578,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="21.5546875" customWidth="1"/>
     <col min="4" max="4" width="26.44140625" customWidth="1"/>
@@ -587,7 +586,7 @@
     <col min="9" max="9" width="12.109375" customWidth="1"/>
     <col min="10" max="10" width="16.77734375" customWidth="1"/>
     <col min="11" max="11" width="22.21875" customWidth="1"/>
-    <col min="12" max="12" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" customWidth="1"/>
     <col min="14" max="14" width="17.5546875" customWidth="1"/>
   </cols>
@@ -650,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -670,8 +669,8 @@
       <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>27</v>
+      <c r="L2" t="s">
+        <v>26</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>ExamName</t>
   </si>
@@ -92,13 +92,22 @@
     <t>state</t>
   </si>
   <si>
-    <t>SmokeTest Exam Pipeline</t>
-  </si>
-  <si>
-    <t>AzurePipelineLOC</t>
-  </si>
-  <si>
-    <t>Pipeline Schedule</t>
+    <t>SmokeTest Exam feb 08</t>
+  </si>
+  <si>
+    <t>Pipeline Schedule feb 08</t>
+  </si>
+  <si>
+    <t>AzurePipelineLOC1</t>
+  </si>
+  <si>
+    <t>AzurePipelineLOC3</t>
+  </si>
+  <si>
+    <t>SmokeTest Exam feb09</t>
+  </si>
+  <si>
+    <t>Pipeline Schedule feb09</t>
   </si>
 </sst>
 </file>
@@ -458,7 +467,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,7 +476,7 @@
     <col min="2" max="2" width="20.21875" customWidth="1"/>
     <col min="3" max="3" width="24.77734375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" customWidth="1"/>
     <col min="7" max="7" width="9.21875" customWidth="1"/>
     <col min="9" max="9" width="24.6640625" customWidth="1"/>
@@ -524,7 +533,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -536,7 +545,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -557,7 +566,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -573,7 +582,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,11 +591,11 @@
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="21.5546875" customWidth="1"/>
     <col min="4" max="4" width="26.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.109375" customWidth="1"/>
     <col min="10" max="10" width="16.77734375" customWidth="1"/>
     <col min="11" max="11" width="22.21875" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" customWidth="1"/>
     <col min="14" max="14" width="17.5546875" customWidth="1"/>
   </cols>
@@ -649,7 +658,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -670,7 +679,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PROD" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>Pipeline Schedule feb 08</t>
   </si>
   <si>
-    <t>AzurePipelineLOC1</t>
-  </si>
-  <si>
     <t>AzurePipelineLOC3</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>Pipeline Schedule feb09</t>
+  </si>
+  <si>
+    <t>AzurePipelineLOC2</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -466,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -533,7 +533,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -545,7 +545,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -566,7 +566,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,7 +679,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="PROD" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>ExamName</t>
   </si>
@@ -92,22 +92,13 @@
     <t>state</t>
   </si>
   <si>
-    <t>SmokeTest Exam feb 08</t>
-  </si>
-  <si>
-    <t>Pipeline Schedule feb 08</t>
-  </si>
-  <si>
-    <t>AzurePipelineLOC3</t>
-  </si>
-  <si>
-    <t>SmokeTest Exam feb09</t>
-  </si>
-  <si>
-    <t>Pipeline Schedule feb09</t>
-  </si>
-  <si>
-    <t>AzurePipelineLOC2</t>
+    <t>SmokeTest Exam feb12</t>
+  </si>
+  <si>
+    <t>Pipeline Schedule feb12</t>
+  </si>
+  <si>
+    <t>AzurePipelineLOC feb12</t>
   </si>
 </sst>
 </file>
@@ -456,7 +447,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -466,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,7 +524,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -545,7 +536,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -581,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,7 +586,7 @@
     <col min="9" max="9" width="12.109375" customWidth="1"/>
     <col min="10" max="10" width="16.77734375" customWidth="1"/>
     <col min="11" max="11" width="22.21875" customWidth="1"/>
-    <col min="12" max="12" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" customWidth="1"/>
     <col min="14" max="14" width="17.5546875" customWidth="1"/>
   </cols>
@@ -679,7 +670,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PROD" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <t>Pipeline Schedule feb12</t>
   </si>
   <si>
-    <t>AzurePipelineLOC feb12</t>
+    <t>LOC feb12</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="PROD" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>ExamName</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>LOC feb12</t>
+  </si>
+  <si>
+    <t>SmokeTest Exam feb 012</t>
+  </si>
+  <si>
+    <t>Pipeline Schedule feb 012</t>
+  </si>
+  <si>
+    <t>LOC feb 12</t>
   </si>
 </sst>
 </file>
@@ -447,7 +456,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -457,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,7 +533,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -536,7 +545,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -557,7 +566,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -572,7 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PROD" sheetId="1" r:id="rId1"/>
@@ -92,22 +92,22 @@
     <t>state</t>
   </si>
   <si>
-    <t>SmokeTest Exam feb12</t>
-  </si>
-  <si>
-    <t>Pipeline Schedule feb12</t>
-  </si>
-  <si>
-    <t>LOC feb12</t>
-  </si>
-  <si>
-    <t>SmokeTest Exam feb 012</t>
-  </si>
-  <si>
-    <t>Pipeline Schedule feb 012</t>
-  </si>
-  <si>
-    <t>LOC feb 12</t>
+    <t>SmokeTest Exam feb 13</t>
+  </si>
+  <si>
+    <t>Pipeline Schedule feb 13</t>
+  </si>
+  <si>
+    <t>LOC feb 13</t>
+  </si>
+  <si>
+    <t>SmokeTest Exam feb13</t>
+  </si>
+  <si>
+    <t>LOC feb13</t>
+  </si>
+  <si>
+    <t>Pipeline Schedule feb13</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,7 +533,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -545,7 +545,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -566,7 +566,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,7 +646,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -658,7 +658,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -679,7 +679,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="PROD" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>ExamName</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Pipeline Schedule feb 13</t>
-  </si>
-  <si>
-    <t>LOC feb 13</t>
   </si>
   <si>
     <t>SmokeTest Exam feb13</t>
@@ -456,7 +453,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -466,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,7 +563,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -581,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,7 +643,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -658,7 +655,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -679,7 +676,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PROD" sheetId="1" r:id="rId1"/>
@@ -92,19 +92,19 @@
     <t>state</t>
   </si>
   <si>
-    <t>SmokeTest Exam feb 13</t>
-  </si>
-  <si>
-    <t>Pipeline Schedule feb 13</t>
-  </si>
-  <si>
-    <t>SmokeTest Exam feb13</t>
-  </si>
-  <si>
-    <t>LOC feb13</t>
-  </si>
-  <si>
-    <t>Pipeline Schedule feb13</t>
+    <t>SmokeTest Exam feb 14</t>
+  </si>
+  <si>
+    <t>LOC feb14</t>
+  </si>
+  <si>
+    <t>Pipeline Schedule feb 14</t>
+  </si>
+  <si>
+    <t>SmokeTest Exam feb14</t>
+  </si>
+  <si>
+    <t>Pipeline Schedule feb14</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,7 +542,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -563,7 +563,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,7 +643,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -676,7 +676,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="PROD" sheetId="1" r:id="rId1"/>
@@ -92,19 +92,19 @@
     <t>state</t>
   </si>
   <si>
-    <t>SmokeTest Exam feb 14</t>
-  </si>
-  <si>
-    <t>LOC feb14</t>
-  </si>
-  <si>
     <t>Pipeline Schedule feb 14</t>
   </si>
   <si>
-    <t>SmokeTest Exam feb14</t>
-  </si>
-  <si>
     <t>Pipeline Schedule feb14</t>
+  </si>
+  <si>
+    <t>LOC feb02 14</t>
+  </si>
+  <si>
+    <t>SmokeTest Exam feb02 14</t>
+  </si>
+  <si>
+    <t>SmokeTest Exam02 feb14</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,7 +530,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -542,7 +542,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -563,7 +563,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,7 +643,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -655,7 +655,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -676,7 +676,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -92,19 +92,19 @@
     <t>state</t>
   </si>
   <si>
-    <t>Pipeline Schedule feb 14</t>
-  </si>
-  <si>
-    <t>Pipeline Schedule feb14</t>
-  </si>
-  <si>
-    <t>LOC feb02 14</t>
-  </si>
-  <si>
-    <t>SmokeTest Exam feb02 14</t>
-  </si>
-  <si>
-    <t>SmokeTest Exam02 feb14</t>
+    <t>Pipeline Schedule feb 15</t>
+  </si>
+  <si>
+    <t>Pipeline Schedule feb15</t>
+  </si>
+  <si>
+    <t>LOC feb 15</t>
+  </si>
+  <si>
+    <t>SmokeTest Exam feb15</t>
+  </si>
+  <si>
+    <t>SmokeTest Exam feb 15</t>
   </si>
 </sst>
 </file>
@@ -140,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -150,6 +150,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,7 +466,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,7 +532,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -562,7 +564,7 @@
       <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="M2" t="s">
@@ -643,7 +645,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -675,7 +677,7 @@
       <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="M2" t="s">

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>ExamName</t>
   </si>
@@ -92,9 +92,6 @@
     <t>state</t>
   </si>
   <si>
-    <t>Pipeline Schedule feb 15</t>
-  </si>
-  <si>
     <t>Pipeline Schedule feb15</t>
   </si>
   <si>
@@ -104,7 +101,13 @@
     <t>SmokeTest Exam feb15</t>
   </si>
   <si>
-    <t>SmokeTest Exam feb 15</t>
+    <t>SmokeTest Exam feb 22</t>
+  </si>
+  <si>
+    <t>LOC feb 22</t>
+  </si>
+  <si>
+    <t>Pipeline Schedule feb 22</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -466,7 +469,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,7 +535,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -544,7 +547,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -565,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -645,7 +648,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -657,7 +660,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -678,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PROD" sheetId="1" r:id="rId1"/>
@@ -92,15 +92,6 @@
     <t>state</t>
   </si>
   <si>
-    <t>Pipeline Schedule feb15</t>
-  </si>
-  <si>
-    <t>LOC feb 15</t>
-  </si>
-  <si>
-    <t>SmokeTest Exam feb15</t>
-  </si>
-  <si>
     <t>SmokeTest Exam feb 22</t>
   </si>
   <si>
@@ -108,6 +99,15 @@
   </si>
   <si>
     <t>Pipeline Schedule feb 22</t>
+  </si>
+  <si>
+    <t>SmokeTest Exam feb26</t>
+  </si>
+  <si>
+    <t>Pipeline Schedule feb26</t>
+  </si>
+  <si>
+    <t>LOC feb 26</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -468,7 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -535,7 +535,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -547,7 +547,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -568,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,7 +648,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -660,7 +660,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -681,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>ExamName</t>
   </si>
@@ -92,22 +92,19 @@
     <t>state</t>
   </si>
   <si>
-    <t>SmokeTest Exam feb 22</t>
-  </si>
-  <si>
-    <t>LOC feb 22</t>
-  </si>
-  <si>
-    <t>Pipeline Schedule feb 22</t>
-  </si>
-  <si>
-    <t>SmokeTest Exam feb26</t>
-  </si>
-  <si>
-    <t>Pipeline Schedule feb26</t>
-  </si>
-  <si>
-    <t>LOC feb 26</t>
+    <t>SmokeTest Exam feb27</t>
+  </si>
+  <si>
+    <t>Pipeline Schedule feb27</t>
+  </si>
+  <si>
+    <t>LOC feb 27</t>
+  </si>
+  <si>
+    <t>SmokeTest Exam feb 27</t>
+  </si>
+  <si>
+    <t>Pipeline Schedule feb 27</t>
   </si>
 </sst>
 </file>
@@ -458,7 +455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -468,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,7 +532,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -547,7 +544,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -568,7 +565,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -584,7 +581,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,7 +645,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -660,7 +657,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -681,7 +678,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>ExamName</t>
   </si>
@@ -92,12 +92,6 @@
     <t>state</t>
   </si>
   <si>
-    <t>SmokeTest Exam feb27</t>
-  </si>
-  <si>
-    <t>Pipeline Schedule feb27</t>
-  </si>
-  <si>
     <t>LOC feb 27</t>
   </si>
   <si>
@@ -105,6 +99,15 @@
   </si>
   <si>
     <t>Pipeline Schedule feb 27</t>
+  </si>
+  <si>
+    <t>SmokeTest Exam feb02 27</t>
+  </si>
+  <si>
+    <t>Pipeline Schedule feb02 27</t>
+  </si>
+  <si>
+    <t>LOC feb02 27</t>
   </si>
 </sst>
 </file>
@@ -532,7 +535,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -544,7 +547,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -565,7 +568,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -581,7 +584,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,7 +648,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -657,7 +660,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -678,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="PROD" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>ExamName</t>
   </si>
@@ -92,22 +92,13 @@
     <t>state</t>
   </si>
   <si>
-    <t>LOC feb 27</t>
-  </si>
-  <si>
-    <t>SmokeTest Exam feb 27</t>
-  </si>
-  <si>
-    <t>Pipeline Schedule feb 27</t>
-  </si>
-  <si>
-    <t>SmokeTest Exam feb02 27</t>
-  </si>
-  <si>
-    <t>Pipeline Schedule feb02 27</t>
-  </si>
-  <si>
-    <t>LOC feb02 27</t>
+    <t>SmokeTest Exam feb 28</t>
+  </si>
+  <si>
+    <t>Pipeline Schedule feb 28</t>
+  </si>
+  <si>
+    <t>LOC feb 28</t>
   </si>
 </sst>
 </file>
@@ -458,7 +449,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -468,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,7 +526,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -547,7 +538,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -568,7 +559,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -583,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,7 +639,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -660,7 +651,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -681,7 +672,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -460,7 +460,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PROD" sheetId="1" r:id="rId1"/>
@@ -92,13 +92,13 @@
     <t>state</t>
   </si>
   <si>
-    <t>SmokeTest Exam feb 28</t>
-  </si>
-  <si>
-    <t>Pipeline Schedule feb 28</t>
-  </si>
-  <si>
-    <t>LOC feb 28</t>
+    <t>Pipeline Schedule mar 01</t>
+  </si>
+  <si>
+    <t>SmokeTest Exam mar 01</t>
+  </si>
+  <si>
+    <t>LOC mar 01</t>
   </si>
 </sst>
 </file>
@@ -134,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -144,7 +144,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -459,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,7 +525,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -538,7 +537,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -558,7 +557,7 @@
       <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="M2" t="s">
@@ -574,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,8 +637,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>25</v>
+      <c r="A2" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -651,7 +650,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="PROD" sheetId="1" r:id="rId1"/>
@@ -92,13 +92,13 @@
     <t>state</t>
   </si>
   <si>
-    <t>Pipeline Schedule mar 01</t>
-  </si>
-  <si>
-    <t>SmokeTest Exam mar 01</t>
-  </si>
-  <si>
-    <t>LOC mar 01</t>
+    <t>SmokeTest Exam mar 4</t>
+  </si>
+  <si>
+    <t>Pipeline Schedule mar 4</t>
+  </si>
+  <si>
+    <t>LOC mar 4</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -458,7 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -524,8 +524,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>26</v>
+      <c r="A2" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -537,7 +537,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -573,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -638,7 +638,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -650,7 +650,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PROD" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
   <si>
     <t>ExamName</t>
   </si>
@@ -92,13 +92,19 @@
     <t>state</t>
   </si>
   <si>
-    <t>SmokeTest Exam mar 4</t>
-  </si>
-  <si>
-    <t>Pipeline Schedule mar 4</t>
-  </si>
-  <si>
-    <t>LOC mar 4</t>
+    <t xml:space="preserve">SmokeTest Exam mar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pipeline Schedule mar </t>
+  </si>
+  <si>
+    <t>LOC mar</t>
+  </si>
+  <si>
+    <t>Pipeline Schedule mar</t>
+  </si>
+  <si>
+    <t>SmokeTest Exam mar</t>
   </si>
 </sst>
 </file>
@@ -448,7 +454,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -458,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -638,7 +644,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -650,7 +656,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -140,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -150,6 +150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -454,7 +455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -580,7 +581,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,7 +677,7 @@
       <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>27</v>
       </c>
       <c r="M2" t="s">

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>ExamName</t>
   </si>
@@ -92,19 +92,13 @@
     <t>state</t>
   </si>
   <si>
-    <t xml:space="preserve">SmokeTest Exam mar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pipeline Schedule mar </t>
-  </si>
-  <si>
-    <t>LOC mar</t>
-  </si>
-  <si>
-    <t>Pipeline Schedule mar</t>
-  </si>
-  <si>
-    <t>SmokeTest Exam mar</t>
+    <t>LOC mar 05</t>
+  </si>
+  <si>
+    <t>Pipeline Schedule mar 05</t>
+  </si>
+  <si>
+    <t>SmokeTest Exam mar 05</t>
   </si>
 </sst>
 </file>
@@ -140,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -150,6 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -455,7 +450,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -465,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,7 +527,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -564,8 +559,8 @@
       <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>27</v>
+      <c r="L2" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -581,7 +576,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,8 +639,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>29</v>
+      <c r="A2" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -657,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -678,7 +673,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -92,13 +92,13 @@
     <t>state</t>
   </si>
   <si>
-    <t>LOC mar 05</t>
-  </si>
-  <si>
-    <t>Pipeline Schedule mar 05</t>
-  </si>
-  <si>
-    <t>SmokeTest Exam mar 05</t>
+    <t>LOC mar 06</t>
+  </si>
+  <si>
+    <t>Pipeline Schedule mar 06</t>
+  </si>
+  <si>
+    <t>SmokeTest Exam mar 06</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -461,7 +461,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>ExamName</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>SmokeTest Exam mar 06</t>
+  </si>
+  <si>
+    <t>Pipeline Schedule may 02</t>
+  </si>
+  <si>
+    <t>LOC mar 0502</t>
+  </si>
+  <si>
+    <t>SmokeTest Exam may 02</t>
   </si>
 </sst>
 </file>
@@ -450,7 +459,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -559,7 +568,7 @@
       <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="M2" t="s">
@@ -575,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,8 +648,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>27</v>
+      <c r="A2" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -652,7 +661,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -672,8 +681,8 @@
       <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>25</v>
+      <c r="L2" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12-ExamCenter/src/test/resources/ExcelFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_17F0BBEFE824839658A587BD4CDADD49BEFC0D3D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70E31584-B652-4E41-B6EF-F5EDB60F4DDB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROD" sheetId="1" r:id="rId1"/>
@@ -101,26 +107,32 @@
     <t>SmokeTest Exam mar 06</t>
   </si>
   <si>
-    <t>Pipeline Schedule may 02</t>
-  </si>
-  <si>
-    <t>LOC mar 0502</t>
-  </si>
-  <si>
-    <t>SmokeTest Exam may 02</t>
+    <t>Smoke Exam sep 2024</t>
+  </si>
+  <si>
+    <t>Smoke Schedule sep 2024</t>
+  </si>
+  <si>
+    <t>Cambridge02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -153,9 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,8 +176,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,14 +476,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -535,7 +552,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
@@ -568,7 +585,7 @@
       <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" t="s">
         <v>25</v>
       </c>
       <c r="M2" t="s">
@@ -581,11 +598,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,8 +665,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>30</v>
+      <c r="A2" t="s">
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -661,7 +678,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -681,8 +698,8 @@
       <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>29</v>
+      <c r="L2" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12-ExamCenter/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_17F0BBEFE824839658A587BD4CDADD49BEFC0D3D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70E31584-B652-4E41-B6EF-F5EDB60F4DDB}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_17F0BBEFE824839658A587BD4CDADD49BEFC0D3D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{431F05BC-9F85-4E61-8670-A3D0ED28E999}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROD" sheetId="1" r:id="rId1"/>
@@ -98,22 +98,22 @@
     <t>state</t>
   </si>
   <si>
-    <t>LOC mar 06</t>
-  </si>
-  <si>
-    <t>Pipeline Schedule mar 06</t>
-  </si>
-  <si>
-    <t>SmokeTest Exam mar 06</t>
-  </si>
-  <si>
-    <t>Smoke Exam sep 2024</t>
-  </si>
-  <si>
-    <t>Smoke Schedule sep 2024</t>
-  </si>
-  <si>
-    <t>Cambridge02</t>
+    <t>Smoke Exam oct 2024</t>
+  </si>
+  <si>
+    <t>Smoke Schedule oct 2024</t>
+  </si>
+  <si>
+    <t>Cambridge12</t>
+  </si>
+  <si>
+    <t>Cambridge13</t>
+  </si>
+  <si>
+    <t>Smoke Schedule octa 2024</t>
+  </si>
+  <si>
+    <t>Smoke Exam octa 2024</t>
   </si>
 </sst>
 </file>
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -565,7 +565,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -586,7 +586,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M2" t="s">
         <v>24</v>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,7 +666,7 @@
     </row>
     <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -678,7 +678,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2">
         <v>2024</v>
@@ -699,7 +699,7 @@
         <v>14</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12-ExamCenter/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_17F0BBEFE824839658A587BD4CDADD49BEFC0D3D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{431F05BC-9F85-4E61-8670-A3D0ED28E999}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_17F0BBEFE824839658A587BD4CDADD49BEFC0D3D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B4921E5-7706-4416-9ABB-26CCD15DC8B7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROD" sheetId="1" r:id="rId1"/>
-    <sheet name="STAGE" sheetId="2" r:id="rId2"/>
+    <sheet name="LMSProd" sheetId="3" r:id="rId2"/>
+    <sheet name="STAGE" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
   <si>
     <t>ExamName</t>
   </si>
@@ -114,6 +115,18 @@
   </si>
   <si>
     <t>Smoke Exam octa 2024</t>
+  </si>
+  <si>
+    <t>"Automation test"</t>
+  </si>
+  <si>
+    <t>Exam Smoke03 2024</t>
+  </si>
+  <si>
+    <t>Schedule Smoke03 2024</t>
+  </si>
+  <si>
+    <t>Canada 01</t>
   </si>
 </sst>
 </file>
@@ -486,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -598,6 +611,118 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2464B480-82FB-44D1-8A2C-A2B0FBE8CE3E}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" customWidth="1"/>
+    <col min="9" max="9" width="30.44140625" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.109375" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2024</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12-ExamCenter/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_17F0BBEFE824839658A587BD4CDADD49BEFC0D3D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B4921E5-7706-4416-9ABB-26CCD15DC8B7}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="11_17F0BBEFE824839658A587BD4CDADD49BEFC0D3D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A2607F5-ABE7-45D4-A77C-3245C756AC60}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
   <si>
     <t>ExamName</t>
   </si>
@@ -69,18 +69,6 @@
     <t>Online Examinations</t>
   </si>
   <si>
-    <t>LocationName</t>
-  </si>
-  <si>
-    <t>AddressField</t>
-  </si>
-  <si>
-    <t>Srinagar colony</t>
-  </si>
-  <si>
-    <t>EditLocationName</t>
-  </si>
-  <si>
     <t>"Test January 9"</t>
   </si>
   <si>
@@ -90,27 +78,15 @@
     <t>Chemistry</t>
   </si>
   <si>
-    <t>Guntur</t>
-  </si>
-  <si>
     <t>"All Questions Test"</t>
   </si>
   <si>
-    <t>state</t>
-  </si>
-  <si>
     <t>Smoke Exam oct 2024</t>
   </si>
   <si>
     <t>Smoke Schedule oct 2024</t>
   </si>
   <si>
-    <t>Cambridge12</t>
-  </si>
-  <si>
-    <t>Cambridge13</t>
-  </si>
-  <si>
     <t>Smoke Schedule octa 2024</t>
   </si>
   <si>
@@ -120,13 +96,10 @@
     <t>"Automation test"</t>
   </si>
   <si>
-    <t>Exam Smoke03 2024</t>
-  </si>
-  <si>
-    <t>Schedule Smoke03 2024</t>
-  </si>
-  <si>
-    <t>Canada 01</t>
+    <t>Schedule Smoke06 2024</t>
+  </si>
+  <si>
+    <t>Exam Smoke06 2024</t>
   </si>
 </sst>
 </file>
@@ -148,15 +121,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -164,21 +143,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,112 +515,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.21875" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" customWidth="1"/>
-    <col min="10" max="10" width="20.5546875" customWidth="1"/>
-    <col min="11" max="11" width="18.77734375" customWidth="1"/>
-    <col min="12" max="12" width="21.44140625" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" customWidth="1"/>
-    <col min="14" max="14" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="22" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" style="2"/>
+    <col min="9" max="9" width="24.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.77734375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="21.109375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2024</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2024</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>22</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -612,10 +617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2464B480-82FB-44D1-8A2C-A2B0FBE8CE3E}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,93 +633,76 @@
     <col min="9" max="9" width="30.44140625" customWidth="1"/>
     <col min="10" max="10" width="17.21875" customWidth="1"/>
     <col min="11" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" customWidth="1"/>
-    <col min="13" max="13" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="9">
+        <v>2024</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2024</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2">
+      <c r="H2" s="7">
         <v>22</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -724,114 +712,99 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" customWidth="1"/>
-    <col min="10" max="10" width="16.77734375" customWidth="1"/>
-    <col min="11" max="11" width="22.21875" customWidth="1"/>
-    <col min="12" max="12" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.44140625" style="2" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="2"/>
+    <col min="9" max="9" width="29.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="22.21875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="9">
+        <v>2024</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2024</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2">
+      <c r="H2" s="7">
         <v>22</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>22</v>
-      </c>
+      <c r="L2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12-ExamCenter/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="11_17F0BBEFE824839658A587BD4CDADD49BEFC0D3D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A2607F5-ABE7-45D4-A77C-3245C756AC60}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="11_17F0BBEFE824839658A587BD4CDADD49BEFC0D3D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D504964-97CD-43D1-9543-25A32A0D2699}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,10 +96,10 @@
     <t>"Automation test"</t>
   </si>
   <si>
-    <t>Schedule Smoke06 2024</t>
-  </si>
-  <si>
-    <t>Exam Smoke06 2024</t>
+    <t>Exam Smoke07 2024</t>
+  </si>
+  <si>
+    <t>Schedule Smoke07 2024</t>
   </si>
 </sst>
 </file>
@@ -620,7 +620,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,7 +672,7 @@
     </row>
     <row r="2" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>2</v>
@@ -684,7 +684,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="9">
         <v>2024</v>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12ExamCenter/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{3F87690B-1F43-4018-8C1B-890C1B81FAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F361E10-E10B-4A5B-BC0D-EEACC600C33C}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{3F87690B-1F43-4018-8C1B-890C1B81FAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{471363B2-B155-4B4E-B380-B117D320B37F}"/>
   <bookViews>
     <workbookView xWindow="5256" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,10 +99,10 @@
     <t>Examination OCT13</t>
   </si>
   <si>
-    <t>Smoke Exam 1129 2024</t>
-  </si>
-  <si>
-    <t>Smoke Schedule 1129 2024</t>
+    <t>Smoke Exam 1130 2024</t>
+  </si>
+  <si>
+    <t>Smoke Schedule 1130 2024</t>
   </si>
 </sst>
 </file>
@@ -224,6 +224,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/src/test/resources/ExcelFiles/Examinations.xlsx
+++ b/src/test/resources/ExcelFiles/Examinations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://focalpointk12-my.sharepoint.com/personal/gopi_pagadala_focalpointk12_com/Documents/FPK12 Automation-2024/FPK12ExamCenter/src/test/resources/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{3F87690B-1F43-4018-8C1B-890C1B81FAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{471363B2-B155-4B4E-B380-B117D320B37F}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{3F87690B-1F43-4018-8C1B-890C1B81FAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5CAD786-B75E-42C6-8533-C77DCD5E598E}"/>
   <bookViews>
     <workbookView xWindow="5256" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,10 +99,10 @@
     <t>Examination OCT13</t>
   </si>
   <si>
-    <t>Smoke Exam 1130 2024</t>
-  </si>
-  <si>
-    <t>Smoke Schedule 1130 2024</t>
+    <t>Smoke Schedule 1232 2024</t>
+  </si>
+  <si>
+    <t>Smoke Exam 1232 2024</t>
   </si>
 </sst>
 </file>
@@ -632,7 +632,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,7 +684,7 @@
     </row>
     <row r="2" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>2</v>
@@ -696,7 +696,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="9">
         <v>2024</v>
